--- a/data/Isauro MolinosT3-2024.xlsx
+++ b/data/Isauro MolinosT3-2024.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:I58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,8 @@
     <col width="25" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -473,6 +475,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -480,6 +483,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -533,8 +537,6 @@
       <c r="F10" s="11" t="n">
         <v>31.53798844</v>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
@@ -1396,6 +1398,7 @@
         <v>2.499e-05</v>
       </c>
     </row>
+    <row r="57"/>
     <row r="58">
       <c r="D58" s="6" t="inlineStr">
         <is>
@@ -1421,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,6 +1437,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1441,6 +1446,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1448,6 +1454,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1713,6 +1720,7 @@
         <v>0.00073302</v>
       </c>
     </row>
+    <row r="28"/>
     <row r="29">
       <c r="C29" s="6" t="inlineStr">
         <is>
@@ -1738,7 +1746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C3:E15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,6 +1759,8 @@
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -1758,6 +1768,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -1765,6 +1776,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -1848,6 +1860,7 @@
         <v>0.00019404</v>
       </c>
     </row>
+    <row r="14"/>
     <row r="15">
       <c r="C15" s="6" t="inlineStr">
         <is>
